--- a/medicine/Enfance/Jean-Côme_Noguès/Jean-Côme_Noguès.xlsx
+++ b/medicine/Enfance/Jean-Côme_Noguès/Jean-Côme_Noguès.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean-C%C3%B4me_Nogu%C3%A8s</t>
+          <t>Jean-Côme_Noguès</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Côme Noguès est un écrivain de littérature pour la jeunesse né le 28 février 1934 à Castelnaudary, dans l'Aude, en France.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean-C%C3%B4me_Nogu%C3%A8s</t>
+          <t>Jean-Côme_Noguès</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Enseignant puis principal dans un établissement parisien.Il est actuellement retraité et en profite pour écrire de nouveaux livres. Il rencontre ses jeunes lecteurs lors d'ateliers d'écriture. Il a écrit une trentaine de livres dont trois très connus (le plus connu est Le Faucon déniché, édité plusieurs fois, Ulysse le Beau Menteur et La Petite Gare, illustré par Éric Battut). 
 Son roman Le Faucon déniché, paru en 1972, connaît une suite en 2011 avec son roman L'Enfant et la forêt, puis un troisième et dernier volet en 2014 avec Le Chemin des collines.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean-C%C3%B4me_Nogu%C3%A8s</t>
+          <t>Jean-Côme_Noguès</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Faucon déniché (1972)
 La bergerie de Bocognano (récit en plusieurs épisodes publié dans le magazine Francs-Jeux et illustré par Catherine Cambier)
